--- a/data/trans_camb/P44D-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P44D-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-31.84176960798845</v>
+        <v>-32.29070142281834</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-24.52085702781214</v>
+        <v>-27.99811852007852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-26.04712473331128</v>
+        <v>-30.6592389648203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-27.70080794711401</v>
+        <v>-21.86397799544221</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-20.09279024221905</v>
+        <v>-19.67388698690051</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.02576055703867</v>
+        <v>-16.26317559823892</v>
       </c>
     </row>
     <row r="6">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.058845472822355</v>
+        <v>3.033699327749539</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.590775261890169</v>
+        <v>4.516065301109034</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.762977127474963</v>
+        <v>2.844257476343766</v>
       </c>
     </row>
     <row r="7">
@@ -718,7 +718,7 @@
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.9099513527281651</v>
+        <v>-0.9298393393808982</v>
       </c>
     </row>
     <row r="9">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.85822278026531</v>
+        <v>-20.90566871496861</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-34.88567441246338</v>
+        <v>-31.52615770212957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.44799245513343</v>
+        <v>-13.95667392384947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-24.14947502007642</v>
+        <v>-24.28728538147352</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.89431067506719</v>
+        <v>-10.5053229296209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.65998349459897</v>
+        <v>-20.22484410844065</v>
       </c>
     </row>
     <row r="12">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.59105487915992</v>
+        <v>20.75640108887082</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.213966832453068</v>
+        <v>6.703602128876556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.44976344460237</v>
+        <v>22.79315768879948</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.247696879814213</v>
+        <v>1.688784101108707</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.65958164278774</v>
+        <v>16.3023283849759</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.714814105227816</v>
+        <v>1.540062002488629</v>
       </c>
     </row>
     <row r="13">
@@ -834,7 +834,7 @@
         <v>0.2628723021722994</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.580403247999683</v>
+        <v>-0.5804032479996829</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.278686512906615</v>
@@ -850,21 +850,23 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>-0.8694194241307832</v>
+      </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9369314836371406</v>
+        <v>-0.906874757666926</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8024216004381178</v>
+        <v>-0.8195720903949741</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8603257746350262</v>
+        <v>-0.8766491008715981</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5999789245144238</v>
+        <v>-0.5939195805480973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7986330670065092</v>
+        <v>-0.8113262069798615</v>
       </c>
     </row>
     <row r="15">
@@ -877,16 +879,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>6.170264640472944</v>
+        <v>5.713386807914818</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7251530032469948</v>
+        <v>0.6042396572413646</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.175849517274958</v>
+        <v>3.058791477465453</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4489802099764431</v>
+        <v>0.3041366134457237</v>
       </c>
     </row>
     <row r="16">
@@ -904,7 +906,7 @@
         <v>3.378570726054182</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.894195395141788</v>
+        <v>7.894195395141786</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-9.599829429454267</v>
@@ -916,7 +918,7 @@
         <v>-3.601670822000744</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.178914767668366</v>
+        <v>-2.178914767668363</v>
       </c>
     </row>
     <row r="17">
@@ -927,22 +929,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.0329621143747</v>
+        <v>-11.821726631753</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.031249707196029</v>
+        <v>-7.005705557170431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-36.727148018406</v>
+        <v>-35.13348866124514</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-36.75216895697328</v>
+        <v>-36.20870188533622</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.85976828050588</v>
+        <v>-19.18551357511777</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-18.07727255401723</v>
+        <v>-16.90028775806638</v>
       </c>
     </row>
     <row r="18">
@@ -953,22 +955,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.04093820651349</v>
+        <v>17.75054136394742</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.84117623741372</v>
+        <v>17.20975602754027</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.24149317946488</v>
+        <v>17.86677115089596</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.017195381799297</v>
+        <v>3.405798758802097</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.43482141240166</v>
+        <v>11.39194746342774</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.24676212933737</v>
+        <v>7.518985205909788</v>
       </c>
     </row>
     <row r="19">
@@ -982,7 +984,7 @@
         <v>0.4631424165960509</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1.082154860394878</v>
+        <v>1.082154860394877</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.3694302682041158</v>
@@ -994,7 +996,7 @@
         <v>-0.2191196357922173</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1325615343293795</v>
+        <v>-0.1325615343293794</v>
       </c>
     </row>
     <row r="20">
@@ -1006,19 +1008,19 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.4274714359092957</v>
+        <v>-0.5533870991047406</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.780408962393476</v>
+        <v>-0.7933329035309407</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7932358041030058</v>
+        <v>-0.7939191218183335</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6058482012308023</v>
+        <v>-0.5724905722700033</v>
       </c>
     </row>
     <row r="21">
@@ -1031,16 +1033,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>1.659490462381564</v>
+        <v>2.306302296204777</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5152486988561058</v>
+        <v>0.3564848321780381</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.361991915241561</v>
+        <v>1.61315030498961</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.201333529588349</v>
+        <v>1.041996875160456</v>
       </c>
     </row>
     <row r="22">
@@ -1081,22 +1083,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.22068844678135</v>
+        <v>-17.2581986835688</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-27.22509094336155</v>
+        <v>-28.99538309843763</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-34.50252927417927</v>
+        <v>-36.24524812477213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-37.6691575012271</v>
+        <v>-38.61345615764822</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-17.79690440570353</v>
+        <v>-17.33178406952363</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-25.08124817755197</v>
+        <v>-25.22517793476974</v>
       </c>
     </row>
     <row r="24">
@@ -1107,22 +1109,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.8423504552607</v>
+        <v>21.70363595002308</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.989371433610708</v>
+        <v>5.095059093120184</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.764980554571348</v>
+        <v>9.741796143307493</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.3665495487601792</v>
+        <v>-0.2689260820367751</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.07962999512285</v>
+        <v>10.6443824915653</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.9096854790953126</v>
+        <v>-1.575555596163589</v>
       </c>
     </row>
     <row r="25">
@@ -1159,22 +1161,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5590666603570187</v>
+        <v>-0.5484261718237747</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7029422221837199</v>
+        <v>-0.7336686175796546</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8879845626074934</v>
+        <v>-0.9154054500735103</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8430741890267349</v>
+        <v>-0.8583868361023839</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5786648908490604</v>
+        <v>-0.570081333638616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7325347084589529</v>
+        <v>-0.7286914547600287</v>
       </c>
     </row>
     <row r="27">
@@ -1185,22 +1187,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.134733849306207</v>
+        <v>2.44289769100492</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6036242424822936</v>
+        <v>0.5878428238921058</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.018943783786106</v>
+        <v>1.335282452356483</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.007915761347205596</v>
+        <v>-0.08075462079953176</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9342700881099252</v>
+        <v>0.7679218563140123</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1121368299286002</v>
+        <v>-0.1100329483441345</v>
       </c>
     </row>
     <row r="28">
@@ -1230,7 +1232,7 @@
         <v>-2.159404726491745</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.823981400748896</v>
+        <v>-6.823981400748895</v>
       </c>
     </row>
     <row r="29">
@@ -1241,22 +1243,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.480834524053082</v>
+        <v>-8.846999868800124</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.29205110028207</v>
+        <v>-13.24311782944857</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-17.79021914491445</v>
+        <v>-16.74956350151189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-20.41360677606666</v>
+        <v>-20.47793695795713</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.604614280655229</v>
+        <v>-9.32406122045888</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.24510641577991</v>
+        <v>-13.7421387300118</v>
       </c>
     </row>
     <row r="30">
@@ -1267,22 +1269,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.28604832828523</v>
+        <v>9.817275721945924</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.735549416413264</v>
+        <v>3.082637403767858</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.220124803587739</v>
+        <v>3.156113725437569</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.324565773338196</v>
+        <v>-3.229331056639187</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.89882512131462</v>
+        <v>4.599804971033657</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.492348861002048</v>
+        <v>-1.798819634398768</v>
       </c>
     </row>
     <row r="31">
@@ -1302,13 +1304,13 @@
         <v>-0.3637755278122322</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.5945467613466694</v>
+        <v>-0.5945467613466693</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1400565293744927</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4425956560064206</v>
+        <v>-0.4425956560064205</v>
       </c>
     </row>
     <row r="32">
@@ -1319,22 +1321,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4724853253957583</v>
+        <v>-0.4643835200195147</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5903904019328359</v>
+        <v>-0.5892053048687362</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7036024268353063</v>
+        <v>-0.7270327371793792</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7465042516607762</v>
+        <v>-0.7524556347340176</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4785733356606742</v>
+        <v>-0.4726815920272101</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6174524870523128</v>
+        <v>-0.6374018174784667</v>
       </c>
     </row>
     <row r="33">
@@ -1345,22 +1347,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.455205101312373</v>
+        <v>1.257726859324704</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5485701240098372</v>
+        <v>0.4633709505555758</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3828325249809503</v>
+        <v>0.3002744307822625</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2912126336966126</v>
+        <v>-0.2676697520097443</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4454071892939171</v>
+        <v>0.4043727734073966</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1388249663792979</v>
+        <v>-0.1556817012410008</v>
       </c>
     </row>
     <row r="34">
